--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H2">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I2">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J2">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.86633166666667</v>
+        <v>24.41295733333333</v>
       </c>
       <c r="N2">
-        <v>56.598995</v>
+        <v>73.238872</v>
       </c>
       <c r="O2">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="P2">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="Q2">
-        <v>161.1875106296789</v>
+        <v>462.4955750194765</v>
       </c>
       <c r="R2">
-        <v>1450.68759566711</v>
+        <v>4162.460175175288</v>
       </c>
       <c r="S2">
-        <v>0.003605156542418447</v>
+        <v>0.004790686203764173</v>
       </c>
       <c r="T2">
-        <v>0.003605156542418447</v>
+        <v>0.004790686203764173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H3">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I3">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J3">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>81.49602766666665</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N3">
         <v>244.488083</v>
       </c>
       <c r="O3">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738063</v>
       </c>
       <c r="P3">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738064</v>
       </c>
       <c r="Q3">
-        <v>696.274297403908</v>
+        <v>1543.915866597378</v>
       </c>
       <c r="R3">
-        <v>6266.468676635172</v>
+        <v>13895.24279937641</v>
       </c>
       <c r="S3">
-        <v>0.01557302937924594</v>
+        <v>0.01599240477396825</v>
       </c>
       <c r="T3">
-        <v>0.01557302937924594</v>
+        <v>0.01599240477396826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H4">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I4">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J4">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.95103433333334</v>
+        <v>58.29008100000001</v>
       </c>
       <c r="N4">
-        <v>68.853103</v>
+        <v>174.870243</v>
       </c>
       <c r="O4">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321011</v>
       </c>
       <c r="P4">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321012</v>
       </c>
       <c r="Q4">
-        <v>196.0858186916371</v>
+        <v>1104.286717988783</v>
       </c>
       <c r="R4">
-        <v>1764.772368224734</v>
+        <v>9938.580461899048</v>
       </c>
       <c r="S4">
-        <v>0.004385700041957657</v>
+        <v>0.01143857677913156</v>
       </c>
       <c r="T4">
-        <v>0.004385700041957656</v>
+        <v>0.01143857677913156</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.543659333333332</v>
+        <v>18.94467633333333</v>
       </c>
       <c r="H5">
-        <v>25.630978</v>
+        <v>56.834029</v>
       </c>
       <c r="I5">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="J5">
-        <v>0.02549662585027493</v>
+        <v>0.03347881112463321</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.11432133333333</v>
+        <v>6.406303</v>
       </c>
       <c r="N5">
-        <v>30.342964</v>
+        <v>19.218909</v>
       </c>
       <c r="O5">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="P5">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="Q5">
-        <v>86.41331585986578</v>
+        <v>121.3653368282623</v>
       </c>
       <c r="R5">
-        <v>777.7198427387921</v>
+        <v>1092.288031454361</v>
       </c>
       <c r="S5">
-        <v>0.001932739886652889</v>
+        <v>0.001257143367769224</v>
       </c>
       <c r="T5">
-        <v>0.001932739886652889</v>
+        <v>0.001257143367769224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>816.98375</v>
       </c>
       <c r="I6">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J6">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.86633166666667</v>
+        <v>24.41295733333333</v>
       </c>
       <c r="N6">
-        <v>56.598995</v>
+        <v>73.238872</v>
       </c>
       <c r="O6">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="P6">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="Q6">
-        <v>5137.828797925695</v>
+        <v>6648.32981025889</v>
       </c>
       <c r="R6">
-        <v>46240.45918133125</v>
+        <v>59834.96829233</v>
       </c>
       <c r="S6">
-        <v>0.1149138480537909</v>
+        <v>0.06886565757681051</v>
       </c>
       <c r="T6">
-        <v>0.1149138480537909</v>
+        <v>0.0688656575768105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>816.98375</v>
       </c>
       <c r="I7">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J7">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.49602766666665</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N7">
         <v>244.488083</v>
       </c>
       <c r="O7">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738063</v>
       </c>
       <c r="P7">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738064</v>
       </c>
       <c r="Q7">
         <v>22193.64343107236</v>
@@ -883,10 +883,10 @@
         <v>199742.7908796512</v>
       </c>
       <c r="S7">
-        <v>0.4963880793435397</v>
+        <v>0.2298892943830269</v>
       </c>
       <c r="T7">
-        <v>0.4963880793435396</v>
+        <v>0.2298892943830269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>816.98375</v>
       </c>
       <c r="I8">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J8">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.95103433333334</v>
+        <v>58.29008100000001</v>
       </c>
       <c r="N8">
-        <v>68.853103</v>
+        <v>174.870243</v>
       </c>
       <c r="O8">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321011</v>
       </c>
       <c r="P8">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321012</v>
       </c>
       <c r="Q8">
-        <v>6250.207365341807</v>
+        <v>15874.01632106125</v>
       </c>
       <c r="R8">
-        <v>56251.86628807625</v>
+        <v>142866.1468895513</v>
       </c>
       <c r="S8">
-        <v>0.1397935602244177</v>
+        <v>0.1644284509844942</v>
       </c>
       <c r="T8">
-        <v>0.1397935602244176</v>
+        <v>0.1644284509844942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>816.98375</v>
       </c>
       <c r="I9">
-        <v>0.8127012944845317</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="J9">
-        <v>0.8127012944845315</v>
+        <v>0.4812547190371557</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.11432133333333</v>
+        <v>6.406303</v>
       </c>
       <c r="N9">
-        <v>30.342964</v>
+        <v>19.218909</v>
       </c>
       <c r="O9">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="P9">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="Q9">
-        <v>2754.412057203889</v>
+        <v>1744.615149525417</v>
       </c>
       <c r="R9">
-        <v>24789.708514835</v>
+        <v>15701.53634572875</v>
       </c>
       <c r="S9">
-        <v>0.06160580686278347</v>
+        <v>0.01807131609282406</v>
       </c>
       <c r="T9">
-        <v>0.06160580686278345</v>
+        <v>0.01807131609282406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H10">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I10">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J10">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.86633166666667</v>
+        <v>24.41295733333333</v>
       </c>
       <c r="N10">
-        <v>56.598995</v>
+        <v>73.238872</v>
       </c>
       <c r="O10">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="P10">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="Q10">
-        <v>972.7838816083912</v>
+        <v>6638.57359501855</v>
       </c>
       <c r="R10">
-        <v>8755.05493447552</v>
+        <v>59747.16235516695</v>
       </c>
       <c r="S10">
-        <v>0.02175750566181872</v>
+        <v>0.06876459938668431</v>
       </c>
       <c r="T10">
-        <v>0.02175750566181871</v>
+        <v>0.06876459938668429</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H11">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I11">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J11">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.49602766666665</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N11">
         <v>244.488083</v>
       </c>
       <c r="O11">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738063</v>
       </c>
       <c r="P11">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738064</v>
       </c>
       <c r="Q11">
-        <v>4202.089920284529</v>
+        <v>22161.07495621319</v>
       </c>
       <c r="R11">
-        <v>37818.80928256076</v>
+        <v>199449.6746059187</v>
       </c>
       <c r="S11">
-        <v>0.09398489938062865</v>
+        <v>0.2295519390619973</v>
       </c>
       <c r="T11">
-        <v>0.09398489938062862</v>
+        <v>0.2295519390619973</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H12">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I12">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J12">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.95103433333334</v>
+        <v>58.29008100000001</v>
       </c>
       <c r="N12">
-        <v>68.853103</v>
+        <v>174.870243</v>
       </c>
       <c r="O12">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321011</v>
       </c>
       <c r="P12">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321012</v>
       </c>
       <c r="Q12">
-        <v>1183.398906590521</v>
+        <v>15850.72170055101</v>
       </c>
       <c r="R12">
-        <v>10650.59015931469</v>
+        <v>142656.495304959</v>
       </c>
       <c r="S12">
-        <v>0.02646816923792176</v>
+        <v>0.1641871573956947</v>
       </c>
       <c r="T12">
-        <v>0.02646816923792175</v>
+        <v>0.1641871573956947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.56189866666667</v>
+        <v>271.928284</v>
       </c>
       <c r="H13">
-        <v>154.685696</v>
+        <v>815.784852</v>
       </c>
       <c r="I13">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="J13">
-        <v>0.1538748663941489</v>
+        <v>0.4805484928482698</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.11432133333333</v>
+        <v>6.406303</v>
       </c>
       <c r="N13">
-        <v>30.342964</v>
+        <v>19.218909</v>
       </c>
       <c r="O13">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="P13">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="Q13">
-        <v>521.5136116714383</v>
+        <v>1742.054981574052</v>
       </c>
       <c r="R13">
-        <v>4693.622505042945</v>
+        <v>15678.49483416647</v>
       </c>
       <c r="S13">
-        <v>0.01166429211377979</v>
+        <v>0.01804479700389353</v>
       </c>
       <c r="T13">
-        <v>0.01166429211377979</v>
+        <v>0.01804479700389353</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H14">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I14">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J14">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.86633166666667</v>
+        <v>24.41295733333333</v>
       </c>
       <c r="N14">
-        <v>56.598995</v>
+        <v>73.238872</v>
       </c>
       <c r="O14">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="P14">
-        <v>0.1413973975846523</v>
+        <v>0.1430960671192788</v>
       </c>
       <c r="Q14">
-        <v>50.11517135223055</v>
+        <v>65.17685089737424</v>
       </c>
       <c r="R14">
-        <v>451.036542170075</v>
+        <v>586.591658076368</v>
       </c>
       <c r="S14">
-        <v>0.001120887326624231</v>
+        <v>0.0006751239520198572</v>
       </c>
       <c r="T14">
-        <v>0.001120887326624231</v>
+        <v>0.0006751239520198572</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H15">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I15">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J15">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>81.49602766666665</v>
+        <v>81.49602766666666</v>
       </c>
       <c r="N15">
         <v>244.488083</v>
       </c>
       <c r="O15">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738063</v>
       </c>
       <c r="P15">
-        <v>0.6107878536829223</v>
+        <v>0.4776873561738064</v>
       </c>
       <c r="Q15">
-        <v>216.4802073450838</v>
+        <v>217.5752151381558</v>
       </c>
       <c r="R15">
-        <v>1948.321866105755</v>
+        <v>1958.176936243402</v>
       </c>
       <c r="S15">
-        <v>0.004841845579508132</v>
+        <v>0.002253717954813925</v>
       </c>
       <c r="T15">
-        <v>0.004841845579508132</v>
+        <v>0.002253717954813925</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H16">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I16">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J16">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.95103433333334</v>
+        <v>58.29008100000001</v>
       </c>
       <c r="N16">
-        <v>68.853103</v>
+        <v>174.870243</v>
       </c>
       <c r="O16">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321011</v>
       </c>
       <c r="P16">
-        <v>0.1720109973653775</v>
+        <v>0.3416661582321012</v>
       </c>
       <c r="Q16">
-        <v>60.96548277893945</v>
+        <v>155.620798670938</v>
       </c>
       <c r="R16">
-        <v>548.689345010455</v>
+        <v>1400.587188038442</v>
       </c>
       <c r="S16">
-        <v>0.001363567861080445</v>
+        <v>0.001611973072780705</v>
       </c>
       <c r="T16">
-        <v>0.001363567861080445</v>
+        <v>0.001611973072780706</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.656328333333333</v>
+        <v>2.669764666666667</v>
       </c>
       <c r="H17">
-        <v>7.968985</v>
+        <v>8.009294000000001</v>
       </c>
       <c r="I17">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="J17">
-        <v>0.007927213271044639</v>
+        <v>0.004717976989941326</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.11432133333333</v>
+        <v>6.406303</v>
       </c>
       <c r="N17">
-        <v>30.342964</v>
+        <v>19.218909</v>
       </c>
       <c r="O17">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="P17">
-        <v>0.07580375136704796</v>
+        <v>0.03755041847481365</v>
       </c>
       <c r="Q17">
-        <v>26.86695833017111</v>
+        <v>17.10332139336067</v>
       </c>
       <c r="R17">
-        <v>241.80262497154</v>
+        <v>153.929892540246</v>
       </c>
       <c r="S17">
-        <v>0.0006009125038318309</v>
+        <v>0.0001771620103268385</v>
       </c>
       <c r="T17">
-        <v>0.0006009125038318309</v>
+        <v>0.0001771620103268385</v>
       </c>
     </row>
   </sheetData>
